--- a/mios/afpHabitat/FONDOS/FondosAFP.xlsx
+++ b/mios/afpHabitat/FONDOS/FondosAFP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <x:bookViews>
     <x:workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="0" activeTab="0"/>
@@ -11,12 +11,12 @@
     <x:sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="145621"/>
+  <x:calcPr calcId="162913"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <x:si>
     <x:t>Fecha</x:t>
   </x:si>
@@ -42,7 +42,7 @@
     <x:t>contador</x:t>
   </x:si>
   <x:si>
-    <x:t>55</x:t>
+    <x:t>75</x:t>
   </x:si>
   <x:si>
     <x:t>PVFondoA</x:t>
@@ -892,6 +892,303 @@
   </x:si>
   <x:si>
     <x:t>41718</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53438</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52958</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38853</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38674</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41473</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38620</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49875</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38638</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42548</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39995</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42969</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50958</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39923</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02/01/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42963</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03/01/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/01/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45959</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/01/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40583</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/01/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46758</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43363</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04/02/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/02/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40707</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/02/2020</x:t>
   </x:si>
   <x:si>
     <x:t>Fondo A</x:t>
@@ -921,7 +1218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
@@ -949,7 +1246,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="5">
+  <x:fills count="6">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -971,6 +1268,12 @@
     <x:fill>
       <x:patternFill patternType="none">
         <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.59999389629810485"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -1088,7 +1391,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="158">
+  <x:cellStyleXfs count="56">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -1096,22 +1399,73 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1120,42 +1474,15 @@
     <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1168,6 +1495,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1180,6 +1510,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1192,6 +1525,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1204,6 +1540,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1216,353 +1555,11 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="29">
+  <x:cellXfs count="37">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center"/>
@@ -1587,11 +1584,17 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1617,7 +1620,23 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1629,6 +1648,9 @@
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </x:ext>
   </x:extLst>
 </x:styleSheet>
@@ -1677,7 +1699,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1712,7 +1734,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1924,10 +1946,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:W57"/>
+  <x:dimension ref="A1:W73"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B54" sqref="B54 B54:B54"/>
+      <x:selection activeCell="O4" sqref="O4 O4:O4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr baseColWidth="10" defaultColWidth="255" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,22 +1959,22 @@
     <x:col min="3" max="4" width="12.425781" style="4" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="12.570312" style="4" bestFit="1" customWidth="1"/>
     <x:col min="6" max="6" width="12.285156" style="4" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="13.425781" style="22" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="10.140625" style="22" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="9.570312" style="22" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="11" width="9.855469" style="22" customWidth="1"/>
-    <x:col min="12" max="12" width="7.140625" style="22" customWidth="1"/>
-    <x:col min="13" max="13" width="9.855469" style="22" customWidth="1"/>
-    <x:col min="14" max="14" width="13.855469" style="22" bestFit="1" customWidth="1"/>
-    <x:col min="15" max="15" width="10.855469" style="22" customWidth="1"/>
-    <x:col min="16" max="16" width="7.425781" style="22" customWidth="1"/>
-    <x:col min="17" max="17" width="14.285156" style="22" customWidth="1"/>
-    <x:col min="18" max="18" width="17.425781" style="22" customWidth="1"/>
-    <x:col min="19" max="19" width="5.570312" style="22" customWidth="1"/>
-    <x:col min="20" max="20" width="6.710938" style="22" customWidth="1"/>
-    <x:col min="21" max="21" width="3.855469" style="22" customWidth="1"/>
-    <x:col min="22" max="22" width="18.855469" style="22" customWidth="1"/>
-    <x:col min="23" max="23" width="255" style="22" customWidth="1"/>
+    <x:col min="7" max="7" width="13.425781" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="10.140625" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="9.570312" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="11" width="9.855469" style="26" customWidth="1"/>
+    <x:col min="12" max="12" width="7.140625" style="26" customWidth="1"/>
+    <x:col min="13" max="13" width="9.855469" style="26" customWidth="1"/>
+    <x:col min="14" max="14" width="13.855469" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="15" max="15" width="10.855469" style="26" customWidth="1"/>
+    <x:col min="16" max="16" width="7.425781" style="26" customWidth="1"/>
+    <x:col min="17" max="17" width="14.285156" style="26" customWidth="1"/>
+    <x:col min="18" max="18" width="17.425781" style="26" customWidth="1"/>
+    <x:col min="19" max="19" width="5.570312" style="26" customWidth="1"/>
+    <x:col min="20" max="20" width="6.710938" style="26" customWidth="1"/>
+    <x:col min="21" max="21" width="3.855469" style="26" customWidth="1"/>
+    <x:col min="22" max="22" width="18.855469" style="26" customWidth="1"/>
+    <x:col min="23" max="23" width="255" style="26" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1981,7 +2003,7 @@
       <x:c r="I1" s="4" t="n">
         <x:v>46000</x:v>
       </x:c>
-      <x:c r="J1" s="23" t="s"/>
+      <x:c r="J1" s="27" t="s"/>
       <x:c r="K1" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1992,7 +2014,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="O1" s="4" t="n">
-        <x:v>55000</x:v>
+        <x:v>56000</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -2056,7 +2078,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="O3" s="4" t="n">
-        <x:v>52000</x:v>
+        <x:v>54000</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -2151,7 +2173,7 @@
       <x:c r="L6" s="1" t="s"/>
       <x:c r="M6" s="1" t="s"/>
       <x:c r="N6" s="1" t="s"/>
-      <x:c r="O6" s="22" t="s"/>
+      <x:c r="O6" s="26" t="s"/>
     </x:row>
     <x:row r="7" spans="1:23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="4" t="s">
@@ -2193,7 +2215,7 @@
       <x:c r="N7" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="O7" s="22" t="s"/>
+      <x:c r="O7" s="26" t="s"/>
     </x:row>
     <x:row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <x:c r="A8" s="4" t="s">
@@ -2558,23 +2580,23 @@
       <x:c r="M18" s="4" t="s"/>
       <x:c r="N18" s="4" t="s"/>
     </x:row>
-    <x:row r="19" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="24" t="s">
+    <x:row r="19" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A19" s="28" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="B19" s="24" t="s">
+      <x:c r="B19" s="28" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="C19" s="24" t="s">
+      <x:c r="C19" s="28" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D19" s="24" t="s">
+      <x:c r="D19" s="28" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="E19" s="24" t="s">
+      <x:c r="E19" s="28" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="F19" s="24" t="s">
+      <x:c r="F19" s="28" t="s">
         <x:v>114</x:v>
       </x:c>
       <x:c r="H19" s="11">
@@ -2590,7 +2612,7 @@
       <x:c r="L19" s="4" t="s"/>
       <x:c r="M19" s="4" t="s"/>
       <x:c r="N19" s="4" t="s"/>
-      <x:c r="O19" s="25" t="s"/>
+      <x:c r="O19" s="29" t="s"/>
     </x:row>
     <x:row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <x:c r="A20" s="4" t="s">
@@ -3200,22 +3222,22 @@
       </x:c>
     </x:row>
     <x:row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <x:c r="A35" s="26" t="s">
+      <x:c r="A35" s="30" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="B35" s="27" t="s">
+      <x:c r="B35" s="31" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="C35" s="27" t="s">
+      <x:c r="C35" s="31" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="D35" s="27" t="s">
+      <x:c r="D35" s="31" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="E35" s="27" t="s">
+      <x:c r="E35" s="31" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="F35" s="27" t="s">
+      <x:c r="F35" s="31" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="H35" s="11">
@@ -3527,44 +3549,44 @@
         <x:f>IF(H42="","",IF(M42&gt;98,"VENTA",IF(M42&lt;2,"COMPRA","NEUTRO")))</x:f>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <x:c r="A43" s="4" t="s">
+    <x:row r="43" spans="1:23" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A43" s="32" t="s">
         <x:v>236</x:v>
       </x:c>
-      <x:c r="B43" s="4" t="s">
+      <x:c r="B43" s="32" t="s">
         <x:v>237</x:v>
       </x:c>
-      <x:c r="C43" s="4" t="s">
+      <x:c r="C43" s="32" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="D43" s="4" t="s">
+      <x:c r="D43" s="32" t="s">
         <x:v>239</x:v>
       </x:c>
-      <x:c r="E43" s="4" t="s">
+      <x:c r="E43" s="32" t="s">
         <x:v>240</x:v>
       </x:c>
-      <x:c r="F43" s="4" t="s">
+      <x:c r="F43" s="32" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="H43" s="11">
+      <x:c r="H43" s="33">
         <x:f>B38*1</x:f>
       </x:c>
-      <x:c r="I43" s="11">
+      <x:c r="I43" s="33">
         <x:f>IF(B38&gt;B37,B38-B37,0)</x:f>
       </x:c>
-      <x:c r="J43" s="11">
+      <x:c r="J43" s="33">
         <x:f>IF(B38&lt;B37,B38-B37,0)</x:f>
       </x:c>
-      <x:c r="K43" s="13">
+      <x:c r="K43" s="34">
         <x:f>AVERAGE(I34:I43)</x:f>
       </x:c>
-      <x:c r="L43" s="4">
+      <x:c r="L43" s="32">
         <x:f>AVERAGE(J34:J43)</x:f>
       </x:c>
-      <x:c r="M43" s="4">
+      <x:c r="M43" s="32">
         <x:f>IF(L43=0,100,100-(100/(1+(K43/L43))))</x:f>
       </x:c>
-      <x:c r="N43" s="4" t="str">
+      <x:c r="N43" s="32" t="str">
         <x:f>IF(H43="","",IF(M43&gt;98,"VENTA",IF(M43&lt;2,"COMPRA","NEUTRO")))</x:f>
       </x:c>
     </x:row>
@@ -3651,22 +3673,22 @@
       </x:c>
     </x:row>
     <x:row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <x:c r="A46" s="24" t="s">
+      <x:c r="A46" s="28" t="s">
         <x:v>254</x:v>
       </x:c>
-      <x:c r="B46" s="24" t="s">
+      <x:c r="B46" s="28" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="C46" s="24" t="s">
+      <x:c r="C46" s="28" t="s">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="D46" s="24" t="s">
+      <x:c r="D46" s="28" t="s">
         <x:v>257</x:v>
       </x:c>
-      <x:c r="E46" s="24" t="s">
+      <x:c r="E46" s="28" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="F46" s="24" t="s">
+      <x:c r="F46" s="28" t="s">
         <x:v>259</x:v>
       </x:c>
       <x:c r="H46" s="11">
@@ -3855,44 +3877,44 @@
         <x:f>IF(H50="","",IF(M50&gt;98,"VENTA",IF(M50&lt;2,"COMPRA","NEUTRO")))</x:f>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <x:c r="A51" s="4" t="s">
+    <x:row r="51" spans="1:23" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A51" s="32" t="s">
         <x:v>273</x:v>
       </x:c>
-      <x:c r="B51" s="4" t="s">
+      <x:c r="B51" s="32" t="s">
         <x:v>274</x:v>
       </x:c>
-      <x:c r="C51" s="4" t="s">
+      <x:c r="C51" s="32" t="s">
         <x:v>275</x:v>
       </x:c>
-      <x:c r="D51" s="4" t="s">
+      <x:c r="D51" s="32" t="s">
         <x:v>276</x:v>
       </x:c>
-      <x:c r="E51" s="4" t="s">
+      <x:c r="E51" s="32" t="s">
         <x:v>277</x:v>
       </x:c>
-      <x:c r="F51" s="4" t="s">
+      <x:c r="F51" s="32" t="s">
         <x:v>278</x:v>
       </x:c>
-      <x:c r="H51" s="11">
+      <x:c r="H51" s="33">
         <x:f>B46*1</x:f>
       </x:c>
-      <x:c r="I51" s="11">
+      <x:c r="I51" s="33">
         <x:f>IF(B46&gt;B45,B46-B45,0)</x:f>
       </x:c>
-      <x:c r="J51" s="11">
+      <x:c r="J51" s="33">
         <x:f>IF(B46&lt;B45,B46-B45,0)</x:f>
       </x:c>
-      <x:c r="K51" s="13">
+      <x:c r="K51" s="34">
         <x:f>AVERAGE(I42:I51)</x:f>
       </x:c>
-      <x:c r="L51" s="4">
+      <x:c r="L51" s="32">
         <x:f>AVERAGE(J42:J51)</x:f>
       </x:c>
-      <x:c r="M51" s="4">
+      <x:c r="M51" s="32">
         <x:f>IF(L51=0,100,100-(100/(1+(K51/L51))))</x:f>
       </x:c>
-      <x:c r="N51" s="4" t="str">
+      <x:c r="N51" s="32" t="str">
         <x:f>IF(H51="","",IF(M51&gt;98,"VENTA",IF(M51&lt;2,"COMPRA","NEUTRO")))</x:f>
       </x:c>
     </x:row>
@@ -4020,6 +4042,24 @@
       </x:c>
     </x:row>
     <x:row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A55" s="4" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="B55" s="4" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="C55" s="4" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="D55" s="4" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="E55" s="4" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="F55" s="4" t="s">
+        <x:v>297</x:v>
+      </x:c>
       <x:c r="H55" s="11">
         <x:f>B50*1</x:f>
       </x:c>
@@ -4043,6 +4083,24 @@
       </x:c>
     </x:row>
     <x:row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A56" s="4" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="B56" s="4" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="C56" s="4" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="D56" s="4" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="E56" s="4" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="F56" s="4" t="s">
+        <x:v>297</x:v>
+      </x:c>
       <x:c r="H56" s="11">
         <x:f>B51*1</x:f>
       </x:c>
@@ -4066,6 +4124,24 @@
       </x:c>
     </x:row>
     <x:row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A57" s="4" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="B57" s="4" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="C57" s="4" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="D57" s="4" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="E57" s="4" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="F57" s="4" t="s">
+        <x:v>304</x:v>
+      </x:c>
       <x:c r="H57" s="11">
         <x:f>B52*1</x:f>
       </x:c>
@@ -4086,6 +4162,535 @@
       </x:c>
       <x:c r="N57" s="4" t="str">
         <x:f>IF(H57="","",IF(M57&gt;98,"VENTA",IF(M57&lt;2,"COMPRA","NEUTRO")))</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A58" s="4" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="B58" s="4" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="C58" s="4" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="D58" s="4" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="E58" s="4" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="F58" s="4" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="H58" s="11">
+        <x:f>B53*1</x:f>
+      </x:c>
+      <x:c r="I58" s="11">
+        <x:f>IF(B53&gt;B52,B53-B52,0)</x:f>
+      </x:c>
+      <x:c r="J58" s="11">
+        <x:f>IF(B53&lt;B52,B53-B52,0)</x:f>
+      </x:c>
+      <x:c r="K58" s="13">
+        <x:f>AVERAGE(I49:I58)</x:f>
+      </x:c>
+      <x:c r="L58" s="4">
+        <x:f>AVERAGE(J49:J58)</x:f>
+      </x:c>
+      <x:c r="M58" s="4">
+        <x:f>IF(L58=0,100,100-(100/(1+(K58/L58))))</x:f>
+      </x:c>
+      <x:c r="N58" s="4" t="str">
+        <x:f>IF(H58="","",IF(M58&gt;98,"VENTA",IF(M58&lt;2,"COMPRA","NEUTRO")))</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A59" s="4" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="B59" s="4" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="C59" s="4" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="D59" s="4" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="E59" s="4" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="F59" s="4" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="H59" s="11">
+        <x:f>B54*1</x:f>
+      </x:c>
+      <x:c r="I59" s="11">
+        <x:f>IF(B54&gt;B53,B54-B53,0)</x:f>
+      </x:c>
+      <x:c r="J59" s="11">
+        <x:f>IF(B54&lt;B53,B54-B53,0)</x:f>
+      </x:c>
+      <x:c r="K59" s="13">
+        <x:f>AVERAGE(I50:I59)</x:f>
+      </x:c>
+      <x:c r="L59" s="4">
+        <x:f>AVERAGE(J50:J59)</x:f>
+      </x:c>
+      <x:c r="M59" s="4">
+        <x:f>IF(L59=0,100,100-(100/(1+(K59/L59))))</x:f>
+      </x:c>
+      <x:c r="N59" s="4" t="str">
+        <x:f>IF(H59="","",IF(M59&gt;98,"VENTA",IF(M59&lt;2,"COMPRA","NEUTRO")))</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A60" s="4" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="B60" s="4" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="C60" s="4" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="D60" s="4" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="E60" s="4" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="F60" s="4" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="H60" s="11">
+        <x:f>B55*1</x:f>
+      </x:c>
+      <x:c r="I60" s="11">
+        <x:f>IF(B55&gt;B54,B55-B54,0)</x:f>
+      </x:c>
+      <x:c r="J60" s="11">
+        <x:f>IF(B55&lt;B54,B55-B54,0)</x:f>
+      </x:c>
+      <x:c r="K60" s="13">
+        <x:f>AVERAGE(I51:I60)</x:f>
+      </x:c>
+      <x:c r="L60" s="4">
+        <x:f>AVERAGE(J51:J60)</x:f>
+      </x:c>
+      <x:c r="M60" s="4">
+        <x:f>IF(L60=0,100,100-(100/(1+(K60/L60))))</x:f>
+      </x:c>
+      <x:c r="N60" s="4" t="str">
+        <x:f>IF(H60="","",IF(M60&gt;98,"VENTA",IF(M60&lt;2,"COMPRA","NEUTRO")))</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A61" s="4" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="B61" s="4" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="C61" s="4" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="D61" s="4" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="E61" s="4" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F61" s="4" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="H61" s="11">
+        <x:f>B56*1</x:f>
+      </x:c>
+      <x:c r="I61" s="11">
+        <x:f>IF(B56&gt;B55,B56-B55,0)</x:f>
+      </x:c>
+      <x:c r="J61" s="11">
+        <x:f>IF(B56&lt;B55,B56-B55,0)</x:f>
+      </x:c>
+      <x:c r="K61" s="13">
+        <x:f>AVERAGE(I52:I61)</x:f>
+      </x:c>
+      <x:c r="L61" s="4">
+        <x:f>AVERAGE(J52:J61)</x:f>
+      </x:c>
+      <x:c r="M61" s="4">
+        <x:f>IF(L61=0,100,100-(100/(1+(K61/L61))))</x:f>
+      </x:c>
+      <x:c r="N61" s="4" t="str">
+        <x:f>IF(H61="","",IF(M61&gt;98,"VENTA",IF(M61&lt;2,"COMPRA","NEUTRO")))</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A62" s="4" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="B62" s="4" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="C62" s="4" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="D62" s="4" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="E62" s="4" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="F62" s="4" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="H62" s="11">
+        <x:f>B57*1</x:f>
+      </x:c>
+      <x:c r="I62" s="11">
+        <x:f>IF(B57&gt;B56,B57-B56,0)</x:f>
+      </x:c>
+      <x:c r="J62" s="11">
+        <x:f>IF(B57&lt;B56,B57-B56,0)</x:f>
+      </x:c>
+      <x:c r="K62" s="13">
+        <x:f>AVERAGE(I53:I62)</x:f>
+      </x:c>
+      <x:c r="L62" s="4">
+        <x:f>AVERAGE(J53:J62)</x:f>
+      </x:c>
+      <x:c r="M62" s="4">
+        <x:f>IF(L62=0,100,100-(100/(1+(K62/L62))))</x:f>
+      </x:c>
+      <x:c r="N62" s="4" t="str">
+        <x:f>IF(H62="","",IF(M62&gt;98,"VENTA",IF(M62&lt;2,"COMPRA","NEUTRO")))</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A63" s="4" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="B63" s="4" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="C63" s="4" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="D63" s="4" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="E63" s="4" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="F63" s="4" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="H63" s="11">
+        <x:f>B58*1</x:f>
+      </x:c>
+      <x:c r="I63" s="11">
+        <x:f>IF(B58&gt;B57,B58-B57,0)</x:f>
+      </x:c>
+      <x:c r="J63" s="11">
+        <x:f>IF(B58&lt;B57,B58-B57,0)</x:f>
+      </x:c>
+      <x:c r="K63" s="13">
+        <x:f>AVERAGE(I54:I63)</x:f>
+      </x:c>
+      <x:c r="L63" s="4">
+        <x:f>AVERAGE(J54:J63)</x:f>
+      </x:c>
+      <x:c r="M63" s="4">
+        <x:f>IF(L63=0,100,100-(100/(1+(K63/L63))))</x:f>
+      </x:c>
+      <x:c r="N63" s="4" t="str">
+        <x:f>IF(H63="","",IF(M63&gt;98,"VENTA",IF(M63&lt;2,"COMPRA","NEUTRO")))</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A64" s="4" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="B64" s="4" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="C64" s="4" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="D64" s="4" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="E64" s="4" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="F64" s="4" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="H64" s="11">
+        <x:f>B59*1</x:f>
+      </x:c>
+      <x:c r="I64" s="11">
+        <x:f>IF(B59&gt;B58,B59-B58,0)</x:f>
+      </x:c>
+      <x:c r="J64" s="11">
+        <x:f>IF(B59&lt;B58,B59-B58,0)</x:f>
+      </x:c>
+      <x:c r="K64" s="13">
+        <x:f>AVERAGE(I55:I64)</x:f>
+      </x:c>
+      <x:c r="L64" s="4">
+        <x:f>AVERAGE(J55:J64)</x:f>
+      </x:c>
+      <x:c r="M64" s="4">
+        <x:f>IF(L64=0,100,100-(100/(1+(K64/L64))))</x:f>
+      </x:c>
+      <x:c r="N64" s="4" t="str">
+        <x:f>IF(H64="","",IF(M64&gt;98,"VENTA",IF(M64&lt;2,"COMPRA","NEUTRO")))</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A65" s="4" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="B65" s="4" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="C65" s="4" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="D65" s="4" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="E65" s="4" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="F65" s="4" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="H65" s="11">
+        <x:f>B60*1</x:f>
+      </x:c>
+      <x:c r="I65" s="11">
+        <x:f>IF(B60&gt;B59,B60-B59,0)</x:f>
+      </x:c>
+      <x:c r="J65" s="11">
+        <x:f>IF(B60&lt;B59,B60-B59,0)</x:f>
+      </x:c>
+      <x:c r="K65" s="13">
+        <x:f>AVERAGE(I56:I65)</x:f>
+      </x:c>
+      <x:c r="L65" s="4">
+        <x:f>AVERAGE(J56:J65)</x:f>
+      </x:c>
+      <x:c r="M65" s="4">
+        <x:f>IF(L65=0,100,100-(100/(1+(K65/L65))))</x:f>
+      </x:c>
+      <x:c r="N65" s="4" t="str">
+        <x:f>IF(H65="","",IF(M65&gt;98,"VENTA",IF(M65&lt;2,"COMPRA","NEUTRO")))</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A66" s="4" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B66" s="4" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="C66" s="4" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="D66" s="4" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="E66" s="4" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="F66" s="4" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="H66" s="11">
+        <x:f>B61*1</x:f>
+      </x:c>
+      <x:c r="I66" s="11">
+        <x:f>IF(B61&gt;B60,B61-B60,0)</x:f>
+      </x:c>
+      <x:c r="J66" s="11">
+        <x:f>IF(B61&lt;B60,B61-B60,0)</x:f>
+      </x:c>
+      <x:c r="K66" s="13">
+        <x:f>AVERAGE(I57:I66)</x:f>
+      </x:c>
+      <x:c r="L66" s="4">
+        <x:f>AVERAGE(J57:J66)</x:f>
+      </x:c>
+      <x:c r="M66" s="4">
+        <x:f>IF(L66=0,100,100-(100/(1+(K66/L66))))</x:f>
+      </x:c>
+      <x:c r="N66" s="4" t="str">
+        <x:f>IF(H66="","",IF(M66&gt;98,"VENTA",IF(M66&lt;2,"COMPRA","NEUTRO")))</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A67" s="4" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="B67" s="4" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="C67" s="4" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="D67" s="4" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="E67" s="4" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="F67" s="4" t="s">
+        <x:v>353</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A68" s="4" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B68" s="4" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="C68" s="4" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="D68" s="4" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="E68" s="4" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="F68" s="4" t="s">
+        <x:v>359</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A69" s="4" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="B69" s="4" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="C69" s="4" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="D69" s="4" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="E69" s="4" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="F69" s="4" t="s">
+        <x:v>365</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A70" s="4" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="B70" s="4" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="C70" s="4" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="D70" s="4" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="E70" s="4" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="F70" s="4" t="s">
+        <x:v>371</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A71" s="4" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="B71" s="4" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="C71" s="4" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="D71" s="4" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="E71" s="4" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="F71" s="4" t="s">
+        <x:v>377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A72" s="4" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B72" s="4" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C72" s="4" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="D72" s="4" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="E72" s="4" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="F72" s="4" t="s">
+        <x:v>383</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <x:c r="A73" s="4" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="B73" s="4" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="C73" s="4" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="D73" s="4" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="E73" s="4" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="F73" s="4" t="s">
+        <x:v>389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:23">
+      <x:c r="A74" s="4" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B74" s="4" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="C74" s="4" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="D74" s="4" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="E74" s="4" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="F74" s="4" t="s">
+        <x:v>389</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4113,16 +4718,16 @@
   </x:sheetViews>
   <x:sheetFormatPr baseColWidth="10" defaultColWidth="255" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.285156" style="22" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="8.140625" style="22" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="7.710938" style="22" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="7.570312" style="22" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="13.140625" style="22" customWidth="1"/>
+    <x:col min="1" max="1" width="8.285156" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="8.140625" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="7.710938" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="7.570312" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="13.140625" style="26" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A2" s="4" t="s">
-        <x:v>292</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s"/>
       <x:c r="C2" s="4" t="s"/>
@@ -4130,16 +4735,16 @@
     </x:row>
     <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A3" s="4" t="s">
-        <x:v>293</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>294</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>295</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="D3" s="4" t="s">
-        <x:v>296</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4164,7 +4769,7 @@
     </x:row>
     <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A6" s="4" t="s">
-        <x:v>297</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s"/>
       <x:c r="C6" s="4" t="s"/>
@@ -4172,16 +4777,16 @@
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A7" s="4" t="s">
-        <x:v>293</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>294</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>298</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>299</x:v>
+        <x:v>398</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
